--- a/設計書/02_オンライン設計書/クライアント処理設計書.xlsx
+++ b/設計書/02_オンライン設計書/クライアント処理設計書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="106">
   <si>
     <t>処理名</t>
     <rPh sb="0" eb="2">
@@ -713,6 +713,24 @@
   </si>
   <si>
     <t>宿泊情報のグラフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”部屋数"</t>
+    <rPh sb="1" eb="4">
+      <t>ヘヤスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”総確保宿泊部屋数",  "使用済宿泊部屋数"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”病床数"</t>
+    <rPh sb="1" eb="4">
+      <t>ビョウショウスウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2434,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A100" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N118" sqref="N118"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ99" sqref="AJ99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -6598,7 +6616,7 @@
       <c r="U82" s="28"/>
       <c r="V82" s="29"/>
       <c r="W82" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="X82" s="28"/>
       <c r="Y82" s="28"/>
@@ -6656,7 +6674,7 @@
       <c r="U83" s="28"/>
       <c r="V83" s="29"/>
       <c r="W83" s="27" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="X83" s="28"/>
       <c r="Y83" s="28"/>
@@ -7310,7 +7328,7 @@
       <c r="U95" s="28"/>
       <c r="V95" s="29"/>
       <c r="W95" s="27" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="X95" s="28"/>
       <c r="Y95" s="28"/>
@@ -7368,7 +7386,7 @@
       <c r="U96" s="28"/>
       <c r="V96" s="29"/>
       <c r="W96" s="27" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="X96" s="28"/>
       <c r="Y96" s="28"/>
